--- a/SchedulingData/dynamic16/pso/scheduling2_2.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling2_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,36 +466,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>208.12</v>
+        <v>267.32</v>
       </c>
       <c r="D2" t="n">
-        <v>259.98</v>
+        <v>329.46</v>
       </c>
       <c r="E2" t="n">
-        <v>16.952</v>
+        <v>11.144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>229.78</v>
+        <v>224.86</v>
       </c>
       <c r="D3" t="n">
-        <v>311.58</v>
+        <v>319.22</v>
       </c>
       <c r="E3" t="n">
-        <v>12.932</v>
+        <v>10.248</v>
       </c>
     </row>
     <row r="4">
@@ -504,55 +504,55 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>231.6</v>
+        <v>259.98</v>
       </c>
       <c r="D4" t="n">
-        <v>284.48</v>
+        <v>304.28</v>
       </c>
       <c r="E4" t="n">
-        <v>11.732</v>
+        <v>10.272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>248.62</v>
+        <v>304.28</v>
       </c>
       <c r="D5" t="n">
-        <v>292.92</v>
+        <v>350.14</v>
       </c>
       <c r="E5" t="n">
-        <v>12.328</v>
+        <v>6.816</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>292.92</v>
+        <v>209.82</v>
       </c>
       <c r="D6" t="n">
-        <v>368</v>
+        <v>269.22</v>
       </c>
       <c r="E6" t="n">
-        <v>8.44</v>
+        <v>16.568</v>
       </c>
     </row>
     <row r="7">
@@ -561,36 +561,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>259.98</v>
+        <v>329.46</v>
       </c>
       <c r="D7" t="n">
-        <v>320.52</v>
+        <v>371</v>
       </c>
       <c r="E7" t="n">
-        <v>12.528</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>368</v>
+        <v>241.58</v>
       </c>
       <c r="D8" t="n">
-        <v>437.8</v>
+        <v>280.18</v>
       </c>
       <c r="E8" t="n">
-        <v>5.06</v>
+        <v>14.152</v>
       </c>
     </row>
     <row r="9">
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>284.48</v>
+        <v>350.14</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5</v>
+        <v>399.26</v>
       </c>
       <c r="E9" t="n">
-        <v>8.960000000000001</v>
+        <v>4.044</v>
       </c>
     </row>
     <row r="10">
@@ -618,188 +618,188 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>338.5</v>
+        <v>399.26</v>
       </c>
       <c r="D10" t="n">
-        <v>390.9</v>
+        <v>466.36</v>
       </c>
       <c r="E10" t="n">
-        <v>6.32</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>244.96</v>
+        <v>466.36</v>
       </c>
       <c r="D11" t="n">
-        <v>303.18</v>
+        <v>542.47</v>
       </c>
       <c r="E11" t="n">
-        <v>13.712</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>311.58</v>
+        <v>319.22</v>
       </c>
       <c r="D12" t="n">
-        <v>373.18</v>
+        <v>399.72</v>
       </c>
       <c r="E12" t="n">
-        <v>9.391999999999999</v>
+        <v>5.828</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>373.18</v>
+        <v>371</v>
       </c>
       <c r="D13" t="n">
-        <v>440.58</v>
+        <v>422.86</v>
       </c>
       <c r="E13" t="n">
-        <v>5.752</v>
+        <v>4.064</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>303.18</v>
+        <v>269.22</v>
       </c>
       <c r="D14" t="n">
-        <v>372.28</v>
+        <v>331.08</v>
       </c>
       <c r="E14" t="n">
-        <v>10.412</v>
+        <v>12.512</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>437.8</v>
+        <v>542.47</v>
       </c>
       <c r="D15" t="n">
-        <v>490.2</v>
+        <v>614.23</v>
       </c>
       <c r="E15" t="n">
-        <v>1.46</v>
+        <v>26.964</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>490.2</v>
+        <v>399.72</v>
       </c>
       <c r="D16" t="n">
-        <v>554.28</v>
+        <v>456.32</v>
       </c>
       <c r="E16" t="n">
-        <v>30</v>
+        <v>1.808</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>259.42</v>
+        <v>456.32</v>
       </c>
       <c r="D17" t="n">
-        <v>325.52</v>
+        <v>539.3</v>
       </c>
       <c r="E17" t="n">
-        <v>10.108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>390.9</v>
+        <v>262.44</v>
       </c>
       <c r="D18" t="n">
-        <v>466.8</v>
+        <v>322.52</v>
       </c>
       <c r="E18" t="n">
-        <v>2.8</v>
+        <v>7.568</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>320.52</v>
+        <v>539.3</v>
       </c>
       <c r="D19" t="n">
-        <v>363.76</v>
+        <v>599.1799999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>9.843999999999999</v>
+        <v>26.192</v>
       </c>
     </row>
     <row r="20">
@@ -808,74 +808,74 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>325.52</v>
+        <v>280.18</v>
       </c>
       <c r="D20" t="n">
-        <v>375.82</v>
+        <v>354.08</v>
       </c>
       <c r="E20" t="n">
-        <v>6.208</v>
+        <v>10.852</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>363.76</v>
+        <v>322.52</v>
       </c>
       <c r="D21" t="n">
-        <v>406.3</v>
+        <v>380.3</v>
       </c>
       <c r="E21" t="n">
-        <v>6.72</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>406.3</v>
+        <v>599.1799999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>464.5</v>
+        <v>645.88</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>22.652</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>464.5</v>
+        <v>614.23</v>
       </c>
       <c r="D23" t="n">
-        <v>523.24</v>
+        <v>681.01</v>
       </c>
       <c r="E23" t="n">
-        <v>0.256</v>
+        <v>23.896</v>
       </c>
     </row>
     <row r="24">
@@ -884,36 +884,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>523.24</v>
+        <v>422.86</v>
       </c>
       <c r="D24" t="n">
-        <v>609.53</v>
+        <v>465.66</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>1.424</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>554.28</v>
+        <v>465.66</v>
       </c>
       <c r="D25" t="n">
-        <v>613.74</v>
+        <v>564.11</v>
       </c>
       <c r="E25" t="n">
-        <v>25.744</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -922,93 +922,93 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>466.8</v>
+        <v>681.01</v>
       </c>
       <c r="D26" t="n">
-        <v>533.2</v>
+        <v>728.95</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>21.212</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>533.2</v>
+        <v>564.11</v>
       </c>
       <c r="D27" t="n">
-        <v>608.1</v>
+        <v>632.71</v>
       </c>
       <c r="E27" t="n">
-        <v>25.2</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>608.1</v>
+        <v>632.71</v>
       </c>
       <c r="D28" t="n">
-        <v>679.7</v>
+        <v>689.21</v>
       </c>
       <c r="E28" t="n">
-        <v>21.66</v>
+        <v>21.78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>613.74</v>
+        <v>331.08</v>
       </c>
       <c r="D29" t="n">
-        <v>657.16</v>
+        <v>391.16</v>
       </c>
       <c r="E29" t="n">
-        <v>22.532</v>
+        <v>8.624000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>657.16</v>
+        <v>354.08</v>
       </c>
       <c r="D30" t="n">
-        <v>718.54</v>
+        <v>404.38</v>
       </c>
       <c r="E30" t="n">
-        <v>20.024</v>
+        <v>6.952</v>
       </c>
     </row>
     <row r="31">
@@ -1017,188 +1017,188 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>375.82</v>
+        <v>404.38</v>
       </c>
       <c r="D31" t="n">
-        <v>426</v>
+        <v>471.88</v>
       </c>
       <c r="E31" t="n">
-        <v>2.32</v>
+        <v>4.312</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>426</v>
+        <v>391.16</v>
       </c>
       <c r="D32" t="n">
-        <v>507.96</v>
+        <v>444.38</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>5.412</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>507.96</v>
+        <v>444.38</v>
       </c>
       <c r="D33" t="n">
-        <v>552.3200000000001</v>
+        <v>496.78</v>
       </c>
       <c r="E33" t="n">
-        <v>27.244</v>
+        <v>1.812</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>552.3200000000001</v>
+        <v>496.78</v>
       </c>
       <c r="D34" t="n">
-        <v>615.1</v>
+        <v>599.46</v>
       </c>
       <c r="E34" t="n">
-        <v>22.596</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>440.58</v>
+        <v>471.88</v>
       </c>
       <c r="D35" t="n">
-        <v>512.84</v>
+        <v>550.38</v>
       </c>
       <c r="E35" t="n">
-        <v>2.616</v>
+        <v>1.072</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>609.53</v>
+        <v>550.38</v>
       </c>
       <c r="D36" t="n">
-        <v>674.55</v>
+        <v>659.54</v>
       </c>
       <c r="E36" t="n">
-        <v>25.688</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>718.54</v>
+        <v>728.95</v>
       </c>
       <c r="D37" t="n">
-        <v>779.08</v>
+        <v>768.85</v>
       </c>
       <c r="E37" t="n">
-        <v>17.06</v>
+        <v>18.352</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>372.28</v>
+        <v>659.54</v>
       </c>
       <c r="D38" t="n">
-        <v>457.38</v>
+        <v>713.66</v>
       </c>
       <c r="E38" t="n">
-        <v>6.512</v>
+        <v>26.788</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>679.7</v>
+        <v>380.3</v>
       </c>
       <c r="D39" t="n">
-        <v>739.3</v>
+        <v>456.16</v>
       </c>
       <c r="E39" t="n">
-        <v>18.8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>512.84</v>
+        <v>456.16</v>
       </c>
       <c r="D40" t="n">
-        <v>568.9400000000001</v>
+        <v>527.2</v>
       </c>
       <c r="E40" t="n">
-        <v>0.096</v>
+        <v>27.036</v>
       </c>
     </row>
     <row r="41">
@@ -1207,169 +1207,131 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>568.9400000000001</v>
+        <v>599.46</v>
       </c>
       <c r="D41" t="n">
-        <v>640.65</v>
+        <v>648.8200000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>27.244</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>457.38</v>
+        <v>527.2</v>
       </c>
       <c r="D42" t="n">
-        <v>526.54</v>
+        <v>559.7</v>
       </c>
       <c r="E42" t="n">
-        <v>2.196</v>
+        <v>24.916</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>526.54</v>
+        <v>689.21</v>
       </c>
       <c r="D43" t="n">
-        <v>613.85</v>
+        <v>762.75</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>18.036</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>613.85</v>
+        <v>648.8200000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>666.85</v>
+        <v>716.1799999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>26.4</v>
+        <v>24.108</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>666.85</v>
+        <v>559.7</v>
       </c>
       <c r="D45" t="n">
-        <v>744.25</v>
+        <v>622.1</v>
       </c>
       <c r="E45" t="n">
-        <v>23.76</v>
+        <v>21.276</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>640.65</v>
+        <v>622.1</v>
       </c>
       <c r="D46" t="n">
-        <v>704.25</v>
+        <v>667.2</v>
       </c>
       <c r="E46" t="n">
-        <v>25.32</v>
+        <v>17.896</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>744.25</v>
+        <v>667.2</v>
       </c>
       <c r="D47" t="n">
-        <v>806.65</v>
+        <v>719.6</v>
       </c>
       <c r="E47" t="n">
-        <v>20.12</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>1</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>pond53</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>674.55</v>
-      </c>
-      <c r="D48" t="n">
-        <v>749.55</v>
-      </c>
-      <c r="E48" t="n">
-        <v>22.308</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>1</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>pond27</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>749.55</v>
-      </c>
-      <c r="D49" t="n">
-        <v>796.95</v>
-      </c>
-      <c r="E49" t="n">
-        <v>20.188</v>
+        <v>14.296</v>
       </c>
     </row>
   </sheetData>
